--- a/larry_ma_j.xlsx
+++ b/larry_ma_j.xlsx
@@ -89651,7 +89651,7 @@
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
-        <v>44321.66666666666</v>
+        <v>44321.79166666666</v>
       </c>
       <c r="B1315" t="n">
         <v>68474000</v>
@@ -89663,34 +89663,34 @@
         <v>66276000</v>
       </c>
       <c r="E1315" t="n">
-        <v>68210000</v>
+        <v>67815000</v>
       </c>
       <c r="F1315" t="n">
-        <v>2744.262711915</v>
+        <v>3113.712666525</v>
       </c>
       <c r="G1315" t="n">
-        <v>67546400</v>
+        <v>67526650</v>
       </c>
       <c r="H1315" t="n">
-        <v>5704577.786858118</v>
+        <v>5702842.903924444</v>
       </c>
       <c r="I1315" t="n">
-        <v>78955555.57371624</v>
+        <v>78932335.80784889</v>
       </c>
       <c r="J1315" t="n">
-        <v>56137244.42628376</v>
+        <v>56120964.19215111</v>
       </c>
       <c r="K1315" t="n">
-        <v>0.5290819068822571</v>
+        <v>0.5126406252485742</v>
       </c>
       <c r="L1315" t="n">
-        <v>68012000</v>
+        <v>67880333.33333333</v>
       </c>
       <c r="M1315" t="n">
         <v>0</v>
       </c>
       <c r="N1315" t="n">
-        <v>186642795562</v>
+        <v>211359853707</v>
       </c>
       <c r="O1315" t="n">
         <v>1</v>
@@ -89702,10 +89702,10 @@
         <v>0</v>
       </c>
       <c r="R1315" t="n">
-        <v>2.366145933306566</v>
+        <v>2.289273057041322</v>
       </c>
       <c r="S1315" t="n">
-        <v>70.29243473655048</v>
+        <v>69.59814577086243</v>
       </c>
       <c r="T1315" t="n">
         <v>1</v>
